--- a/sputnik/personal/ee/314ee.xlsx
+++ b/sputnik/personal/ee/314ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -475,10 +475,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H8" sqref="H6:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -569,7 +569,7 @@
         <v>4.49</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F2:F7" si="1">D4*E4</f>
+        <f t="shared" ref="F4:F7" si="1">D4*E4</f>
         <v>1571.5</v>
       </c>
       <c r="G4" s="9">
@@ -805,25 +805,76 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="10" t="s">
+      <c r="A14" s="6">
+        <v>43965</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
+        <v>11198</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" ref="D14:D15" si="4">C14-C12</f>
+        <v>500</v>
+      </c>
+      <c r="E14" s="11">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14:F15" si="5">D14*E14</f>
+        <v>2245</v>
+      </c>
+      <c r="G14" s="9">
+        <f>SUM(F14,F15)</f>
+        <v>2974</v>
+      </c>
+      <c r="H14" s="9">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11">
+        <v>5422</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="E15" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="5"/>
+        <v>729</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="9">
-        <f>SUM(G2:G13)</f>
-        <v>12365.16</v>
-      </c>
-      <c r="H14" s="9">
-        <f>SUM(H2:H13)</f>
-        <v>12263.65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="10" t="s">
+      <c r="G16" s="9">
+        <f>SUM(G2:G15)</f>
+        <v>15339.16</v>
+      </c>
+      <c r="H16" s="9">
+        <f>SUM(H2:H15)</f>
+        <v>15237.65</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9">
-        <f>SUM(H14,-G14)</f>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9">
+        <f>SUM(H16,-G16)</f>
         <v>-101.51000000000022</v>
       </c>
     </row>

--- a/sputnik/personal/ee/314ee.xlsx
+++ b/sputnik/personal/ee/314ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -91,12 +91,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -139,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -168,6 +174,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -475,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H6:H8"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -622,11 +629,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="12">
         <f>SUM(F6,F7)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="12">
         <v>2135</v>
       </c>
     </row>
@@ -648,8 +655,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -672,11 +679,11 @@
         <f t="shared" ref="F8:F13" si="2">D8*E8</f>
         <v>3322.6000000000004</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="12">
         <f>SUM(F8,F9)</f>
         <v>4761.1600000000008</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="12">
         <v>2525</v>
       </c>
     </row>
@@ -856,25 +863,73 @@
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="10" t="s">
+      <c r="A16" s="6">
+        <v>44027</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ref="F16:F17" si="6">D16*E16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>765</v>
+      </c>
+      <c r="H16" s="9">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="9">
-        <f>SUM(G2:G15)</f>
-        <v>15339.16</v>
-      </c>
-      <c r="H16" s="9">
-        <f>SUM(H2:H15)</f>
-        <v>15237.65</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="10" t="s">
+      <c r="G18" s="9">
+        <f>SUM(G2:G17)</f>
+        <v>16104.16</v>
+      </c>
+      <c r="H18" s="9">
+        <f>SUM(H2:H17)</f>
+        <v>16002.65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9">
-        <f>SUM(H16,-G16)</f>
+      <c r="G19" s="9"/>
+      <c r="H19" s="12">
+        <f>SUM(H18,-G18)</f>
         <v>-101.51000000000022</v>
       </c>
     </row>

--- a/sputnik/personal/ee/314ee.xlsx
+++ b/sputnik/personal/ee/314ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -822,7 +822,7 @@
         <v>11198</v>
       </c>
       <c r="D14" s="11">
-        <f t="shared" ref="D14:D15" si="4">C14-C12</f>
+        <f t="shared" ref="D14:D17" si="4">C14-C12</f>
         <v>500</v>
       </c>
       <c r="E14" s="11">
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="11">
-        <v>0</v>
+        <v>11198</v>
       </c>
       <c r="D16" s="11">
         <v>0</v>
@@ -895,41 +895,91 @@
         <v>1</v>
       </c>
       <c r="C17" s="11">
-        <v>0</v>
+        <v>5722</v>
       </c>
       <c r="D17" s="11">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>300</v>
       </c>
       <c r="E17" s="11">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>765</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="10" t="s">
+      <c r="A18" s="6">
+        <v>44091</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="11">
+        <v>11398</v>
+      </c>
+      <c r="D18" s="11">
+        <v>200</v>
+      </c>
+      <c r="E18" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ref="F18:F19" si="7">D18*E18</f>
+        <v>942</v>
+      </c>
+      <c r="G18" s="9">
+        <f>SUM(F18,F19)</f>
+        <v>1197</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11">
+        <v>5822</v>
+      </c>
+      <c r="D19" s="11">
+        <v>100</v>
+      </c>
+      <c r="E19" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="7"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G20" s="9">
         <f>SUM(G2:G17)</f>
         <v>16104.16</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H20" s="9">
         <f>SUM(H2:H17)</f>
         <v>16002.65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="10" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="12">
-        <f>SUM(H18,-G18)</f>
+      <c r="G21" s="9"/>
+      <c r="H21" s="12">
+        <f>SUM(H20,-G20)</f>
         <v>-101.51000000000022</v>
       </c>
     </row>

--- a/sputnik/personal/ee/314ee.xlsx
+++ b/sputnik/personal/ee/314ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -961,25 +961,74 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="10" t="s">
+      <c r="A20" s="6">
+        <v>44154</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11">
+        <v>11748</v>
+      </c>
+      <c r="D20" s="11">
+        <v>350</v>
+      </c>
+      <c r="E20" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ref="F20:F21" si="8">D20*E20</f>
+        <v>1648.5</v>
+      </c>
+      <c r="G20" s="9">
+        <f>SUM(F20,F21)</f>
+        <v>2158.5</v>
+      </c>
+      <c r="H20" s="9">
+        <v>2158.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="11">
+        <v>6022</v>
+      </c>
+      <c r="D21" s="11">
+        <v>200</v>
+      </c>
+      <c r="E21" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="8"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G22" s="9">
         <f>SUM(G2:G17)</f>
         <v>16104.16</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H22" s="9">
         <f>SUM(H2:H17)</f>
         <v>16002.65</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="10" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="12">
-        <f>SUM(H20,-G20)</f>
+      <c r="G23" s="9"/>
+      <c r="H23" s="12">
+        <f>SUM(H22,-G22)</f>
         <v>-101.51000000000022</v>
       </c>
     </row>

--- a/sputnik/personal/ee/314ee.xlsx
+++ b/sputnik/personal/ee/314ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -822,7 +822,7 @@
         <v>11198</v>
       </c>
       <c r="D14" s="11">
-        <f t="shared" ref="D14:D17" si="4">C14-C12</f>
+        <f t="shared" ref="D14:D23" si="4">C14-C12</f>
         <v>500</v>
       </c>
       <c r="E14" s="11">
@@ -873,6 +873,7 @@
         <v>11198</v>
       </c>
       <c r="D16" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E16" s="11">
@@ -922,6 +923,7 @@
         <v>11398</v>
       </c>
       <c r="D18" s="11">
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="E18" s="11">
@@ -948,6 +950,7 @@
         <v>5822</v>
       </c>
       <c r="D19" s="11">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E19" s="11">
@@ -971,6 +974,7 @@
         <v>11748</v>
       </c>
       <c r="D20" s="11">
+        <f t="shared" si="4"/>
         <v>350</v>
       </c>
       <c r="E20" s="11">
@@ -997,6 +1001,7 @@
         <v>6022</v>
       </c>
       <c r="D21" s="11">
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="E21" s="11">
@@ -1010,26 +1015,77 @@
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="10" t="s">
+      <c r="A22" s="6">
+        <v>44188</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="11">
+        <v>12298</v>
+      </c>
+      <c r="D22" s="11">
+        <f t="shared" si="4"/>
+        <v>550</v>
+      </c>
+      <c r="E22" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ref="F22:F23" si="9">D22*E22</f>
+        <v>2590.5</v>
+      </c>
+      <c r="G22" s="9">
+        <f>SUM(F22,F23)</f>
+        <v>3355.5</v>
+      </c>
+      <c r="H22" s="9">
+        <v>3355.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="11">
+        <v>6322</v>
+      </c>
+      <c r="D23" s="11">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="E23" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="9"/>
+        <v>765</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="9">
-        <f>SUM(G2:G17)</f>
-        <v>16104.16</v>
-      </c>
-      <c r="H22" s="9">
-        <f>SUM(H2:H17)</f>
-        <v>16002.65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="10" t="s">
+      <c r="G24" s="9">
+        <f>SUM(G2:G23)</f>
+        <v>22815.16</v>
+      </c>
+      <c r="H24" s="9">
+        <f>SUM(H2:H23)</f>
+        <v>22713.65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="12">
-        <f>SUM(H22,-G22)</f>
-        <v>-101.51000000000022</v>
+      <c r="G25" s="9"/>
+      <c r="H25" s="12">
+        <f>SUM(H24,-G24)</f>
+        <v>-101.5099999999984</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/314ee.xlsx
+++ b/sputnik/personal/ee/314ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="H25" sqref="H4:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1066,25 +1066,76 @@
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="10" t="s">
+      <c r="A24" s="6">
+        <v>44210</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="11">
+        <v>12798</v>
+      </c>
+      <c r="D24" s="11">
+        <f t="shared" ref="D24:D25" si="10">C24-C22</f>
+        <v>500</v>
+      </c>
+      <c r="E24" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" ref="F24:F25" si="11">D24*E24</f>
+        <v>2355</v>
+      </c>
+      <c r="G24" s="9">
+        <f>SUM(F24,F25)</f>
+        <v>2865</v>
+      </c>
+      <c r="H24" s="9">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="11">
+        <v>6522</v>
+      </c>
+      <c r="D25" s="11">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="E25" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="11"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="9">
-        <f>SUM(G2:G23)</f>
-        <v>22815.16</v>
-      </c>
-      <c r="H24" s="9">
-        <f>SUM(H2:H23)</f>
-        <v>22713.65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="10" t="s">
+      <c r="G26" s="9">
+        <f>SUM(G2:G25)</f>
+        <v>25680.16</v>
+      </c>
+      <c r="H26" s="9">
+        <f>SUM(H2:H25)</f>
+        <v>25578.65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="12">
-        <f>SUM(H24,-G24)</f>
+      <c r="G27" s="9"/>
+      <c r="H27" s="12">
+        <f>SUM(H26,-G26)</f>
         <v>-101.5099999999984</v>
       </c>
     </row>

--- a/sputnik/personal/ee/314ee.xlsx
+++ b/sputnik/personal/ee/314ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H4:H25"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1117,25 +1117,127 @@
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="10" t="s">
+      <c r="A26" s="6">
+        <v>44251</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="11">
+        <v>13348</v>
+      </c>
+      <c r="D26" s="11">
+        <f t="shared" ref="D26:D27" si="12">C26-C24</f>
+        <v>550</v>
+      </c>
+      <c r="E26" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" ref="F26:F27" si="13">D26*E26</f>
+        <v>2590.5</v>
+      </c>
+      <c r="G26" s="9">
+        <f>SUM(F26,F27)</f>
+        <v>3355.5</v>
+      </c>
+      <c r="H26" s="9">
+        <v>3355.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="11">
+        <v>6822</v>
+      </c>
+      <c r="D27" s="11">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+      <c r="E27" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="13"/>
+        <v>765</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>44298</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="11">
+        <v>13898</v>
+      </c>
+      <c r="D28" s="11">
+        <f t="shared" ref="D28:D29" si="14">C28-C26</f>
+        <v>550</v>
+      </c>
+      <c r="E28" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" ref="F28:F29" si="15">D28*E28</f>
+        <v>2590.5</v>
+      </c>
+      <c r="G28" s="9">
+        <f>SUM(F28,F29)</f>
+        <v>3355.5</v>
+      </c>
+      <c r="H28" s="9">
+        <v>3355.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="11">
+        <v>7122</v>
+      </c>
+      <c r="D29" s="11">
+        <f t="shared" si="14"/>
+        <v>300</v>
+      </c>
+      <c r="E29" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="15"/>
+        <v>765</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="9">
-        <f>SUM(G2:G25)</f>
-        <v>25680.16</v>
-      </c>
-      <c r="H26" s="9">
-        <f>SUM(H2:H25)</f>
-        <v>25578.65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="10" t="s">
+      <c r="G30" s="9">
+        <f>SUM(G2:G29)</f>
+        <v>32391.16</v>
+      </c>
+      <c r="H30" s="9">
+        <f>SUM(H2:H29)</f>
+        <v>32289.65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="12">
-        <f>SUM(H26,-G26)</f>
+      <c r="G31" s="9"/>
+      <c r="H31" s="12">
+        <f>SUM(H30,-G30)</f>
         <v>-101.5099999999984</v>
       </c>
     </row>

--- a/sputnik/personal/ee/314ee.xlsx
+++ b/sputnik/personal/ee/314ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1219,26 +1219,77 @@
       <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="10" t="s">
+      <c r="A30" s="6">
+        <v>44427</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="11">
+        <v>14448</v>
+      </c>
+      <c r="D30" s="11">
+        <f t="shared" ref="D30:D31" si="16">C30-C28</f>
+        <v>550</v>
+      </c>
+      <c r="E30" s="11">
+        <v>4.96</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" ref="F30:F31" si="17">D30*E30</f>
+        <v>2728</v>
+      </c>
+      <c r="G30" s="9">
+        <f>SUM(F30,F31)</f>
+        <v>3666</v>
+      </c>
+      <c r="H30" s="9">
+        <v>3247.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="11">
+        <v>7472</v>
+      </c>
+      <c r="D31" s="11">
+        <f t="shared" si="16"/>
+        <v>350</v>
+      </c>
+      <c r="E31" s="11">
+        <v>2.68</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="17"/>
+        <v>938</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="9">
-        <f>SUM(G2:G29)</f>
-        <v>32391.16</v>
-      </c>
-      <c r="H30" s="9">
-        <f>SUM(H2:H29)</f>
-        <v>32289.65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="10" t="s">
+      <c r="G32" s="9">
+        <f>SUM(G2:G31)</f>
+        <v>36057.160000000003</v>
+      </c>
+      <c r="H32" s="9">
+        <f>SUM(H2:H31)</f>
+        <v>35537.15</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="12">
-        <f>SUM(H30,-G30)</f>
-        <v>-101.5099999999984</v>
+      <c r="G33" s="9"/>
+      <c r="H33" s="12">
+        <f>SUM(H32,-G32)</f>
+        <v>-520.01000000000204</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/314ee.xlsx
+++ b/sputnik/personal/ee/314ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H8" sqref="H6:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1239,11 +1239,11 @@
         <f t="shared" ref="F30:F31" si="17">D30*E30</f>
         <v>2728</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="12">
         <f>SUM(F30,F31)</f>
         <v>3666</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="12">
         <v>3247.5</v>
       </c>
     </row>
@@ -1270,32 +1270,83 @@
       <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F32" s="10" t="s">
+      <c r="A32" s="6">
+        <v>44522</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="11">
+        <v>15048</v>
+      </c>
+      <c r="D32" s="11">
+        <f t="shared" ref="D32:D33" si="18">C32-C30</f>
+        <v>600</v>
+      </c>
+      <c r="E32" s="11">
+        <v>4.96</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" ref="F32:F33" si="19">D32*E32</f>
+        <v>2976</v>
+      </c>
+      <c r="G32" s="9">
+        <f>SUM(F32,F33)</f>
+        <v>3914</v>
+      </c>
+      <c r="H32" s="9">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="11">
+        <v>7822</v>
+      </c>
+      <c r="D33" s="11">
+        <f t="shared" si="18"/>
+        <v>350</v>
+      </c>
+      <c r="E33" s="11">
+        <v>2.68</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="19"/>
+        <v>938</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G34" s="9">
         <f>SUM(G2:G31)</f>
         <v>36057.160000000003</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H34" s="9">
         <f>SUM(H2:H31)</f>
         <v>35537.15</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F33" s="10" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="12">
-        <f>SUM(H32,-G32)</f>
+      <c r="G35" s="9"/>
+      <c r="H35" s="12">
+        <f>SUM(H34,-G34)</f>
         <v>-520.01000000000204</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
